--- a/data/trans_orig/P39A2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P39A2_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{080124CD-B1F2-42DB-BE11-1B38B9FC77AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE8DBD71-6BC8-44A5-B83B-BE93018BEED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F9364941-0556-4F4F-B1E3-EF42C3435C7E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3A78CBAA-5452-4DD7-9480-F4689BF18095}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>72,05%</t>
   </si>
   <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
   </si>
   <si>
     <t>75,15%</t>
   </si>
   <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
   </si>
   <si>
     <t>73,91%</t>
   </si>
   <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>27,95%</t>
   </si>
   <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
   </si>
   <si>
     <t>24,85%</t>
   </si>
   <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
   </si>
   <si>
     <t>26,09%</t>
   </si>
   <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>73,22%</t>
   </si>
   <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
   </si>
   <si>
     <t>68,75%</t>
   </si>
   <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
   </si>
   <si>
     <t>70,95%</t>
   </si>
   <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
   </si>
   <si>
     <t>26,78%</t>
   </si>
   <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
   </si>
   <si>
     <t>31,25%</t>
   </si>
   <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
   </si>
   <si>
     <t>29,05%</t>
   </si>
   <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,61 +194,61 @@
     <t>69,27%</t>
   </si>
   <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
   </si>
   <si>
     <t>63,58%</t>
   </si>
   <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
   </si>
   <si>
     <t>66,34%</t>
   </si>
   <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
   </si>
   <si>
     <t>30,73%</t>
   </si>
   <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
   </si>
   <si>
     <t>36,42%</t>
   </si>
   <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
   </si>
   <si>
     <t>33,66%</t>
   </si>
   <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
   </si>
   <si>
     <t>72,23%</t>
   </si>
   <si>
-    <t>70,38%</t>
+    <t>70,31%</t>
   </si>
   <si>
     <t>74,1%</t>
@@ -257,19 +257,19 @@
     <t>68,97%</t>
   </si>
   <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
   </si>
   <si>
     <t>70,52%</t>
   </si>
   <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
   </si>
   <si>
     <t>27,77%</t>
@@ -278,25 +278,25 @@
     <t>25,9%</t>
   </si>
   <si>
-    <t>29,62%</t>
+    <t>29,69%</t>
   </si>
   <si>
     <t>31,03%</t>
   </si>
   <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
   </si>
   <si>
     <t>29,48%</t>
   </si>
   <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7352CE12-D921-41ED-A17E-65E2E7B62AF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1044A61-EBCC-49BB-A2C9-C47D14772787}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -987,7 +987,7 @@
         <v>1302</v>
       </c>
       <c r="D7" s="7">
-        <v>1465886</v>
+        <v>1465887</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1089,7 +1089,7 @@
         <v>1861</v>
       </c>
       <c r="D9" s="7">
-        <v>2002087</v>
+        <v>2002088</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1172,7 +1172,7 @@
         <v>1007</v>
       </c>
       <c r="N10" s="7">
-        <v>876453</v>
+        <v>876454</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1274,7 +1274,7 @@
         <v>1601</v>
       </c>
       <c r="N12" s="7">
-        <v>1321111</v>
+        <v>1321112</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P39A2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P39A2_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE8DBD71-6BC8-44A5-B83B-BE93018BEED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F44BFA9-9F11-4DFE-9765-DF7CC6B05F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3A78CBAA-5452-4DD7-9480-F4689BF18095}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{592D656C-66C4-4C8C-A087-D6DC42560011}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1044A61-EBCC-49BB-A2C9-C47D14772787}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E194F36-53C8-4EA5-A0A2-49BF7BED0F4B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P39A2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P39A2_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F44BFA9-9F11-4DFE-9765-DF7CC6B05F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFA75278-41BF-4133-89E9-0E35CF2C16F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{592D656C-66C4-4C8C-A087-D6DC42560011}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C089263A-3730-404F-B0C5-D8C071949861}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>72,05%</t>
   </si>
   <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
   </si>
   <si>
     <t>75,15%</t>
   </si>
   <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
   </si>
   <si>
     <t>73,91%</t>
   </si>
   <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>27,95%</t>
   </si>
   <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
   </si>
   <si>
     <t>24,85%</t>
   </si>
   <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
   </si>
   <si>
     <t>26,09%</t>
   </si>
   <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>73,22%</t>
   </si>
   <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
   </si>
   <si>
     <t>68,75%</t>
   </si>
   <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
   </si>
   <si>
     <t>70,95%</t>
   </si>
   <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
   </si>
   <si>
     <t>26,78%</t>
   </si>
   <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
   </si>
   <si>
     <t>31,25%</t>
   </si>
   <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
   </si>
   <si>
     <t>29,05%</t>
   </si>
   <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,61 +194,61 @@
     <t>69,27%</t>
   </si>
   <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
   </si>
   <si>
     <t>63,58%</t>
   </si>
   <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
   </si>
   <si>
     <t>66,34%</t>
   </si>
   <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
   </si>
   <si>
     <t>30,73%</t>
   </si>
   <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
   </si>
   <si>
     <t>36,42%</t>
   </si>
   <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
   </si>
   <si>
     <t>33,66%</t>
   </si>
   <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
   </si>
   <si>
     <t>72,23%</t>
   </si>
   <si>
-    <t>70,31%</t>
+    <t>70,38%</t>
   </si>
   <si>
     <t>74,1%</t>
@@ -257,19 +257,19 @@
     <t>68,97%</t>
   </si>
   <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
   </si>
   <si>
     <t>70,52%</t>
   </si>
   <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
   </si>
   <si>
     <t>27,77%</t>
@@ -278,25 +278,25 @@
     <t>25,9%</t>
   </si>
   <si>
-    <t>29,69%</t>
+    <t>29,62%</t>
   </si>
   <si>
     <t>31,03%</t>
   </si>
   <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
   </si>
   <si>
     <t>29,48%</t>
   </si>
   <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E194F36-53C8-4EA5-A0A2-49BF7BED0F4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D254AF2E-AD48-41C5-86F9-2A8904459986}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -987,7 +987,7 @@
         <v>1302</v>
       </c>
       <c r="D7" s="7">
-        <v>1465887</v>
+        <v>1465886</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1089,7 +1089,7 @@
         <v>1861</v>
       </c>
       <c r="D9" s="7">
-        <v>2002088</v>
+        <v>2002087</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1172,7 +1172,7 @@
         <v>1007</v>
       </c>
       <c r="N10" s="7">
-        <v>876454</v>
+        <v>876453</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1274,7 +1274,7 @@
         <v>1601</v>
       </c>
       <c r="N12" s="7">
-        <v>1321112</v>
+        <v>1321111</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P39A2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P39A2_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFA75278-41BF-4133-89E9-0E35CF2C16F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F7AEE1A-D2F1-4D0E-928D-FD22532860C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C089263A-3730-404F-B0C5-D8C071949861}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{32517FB0-3439-4533-8461-28609AD50415}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,169 +134,169 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D254AF2E-AD48-41C5-86F9-2A8904459986}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA84769A-2686-43C4-AA0F-108EB576FEE4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -832,7 +832,7 @@
         <v>393</v>
       </c>
       <c r="D4" s="7">
-        <v>317623</v>
+        <v>300935</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -847,7 +847,7 @@
         <v>842</v>
       </c>
       <c r="I4" s="7">
-        <v>500156</v>
+        <v>447901</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -862,7 +862,7 @@
         <v>1235</v>
       </c>
       <c r="N4" s="7">
-        <v>817779</v>
+        <v>748836</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -883,7 +883,7 @@
         <v>156</v>
       </c>
       <c r="D5" s="7">
-        <v>123207</v>
+        <v>120891</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -898,7 +898,7 @@
         <v>281</v>
       </c>
       <c r="I5" s="7">
-        <v>165396</v>
+        <v>153747</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -913,7 +913,7 @@
         <v>437</v>
       </c>
       <c r="N5" s="7">
-        <v>288603</v>
+        <v>274638</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -934,7 +934,7 @@
         <v>549</v>
       </c>
       <c r="D6" s="7">
-        <v>440830</v>
+        <v>421826</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -949,7 +949,7 @@
         <v>1123</v>
       </c>
       <c r="I6" s="7">
-        <v>665552</v>
+        <v>601648</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -964,7 +964,7 @@
         <v>1672</v>
       </c>
       <c r="N6" s="7">
-        <v>1106382</v>
+        <v>1023474</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -987,7 +987,7 @@
         <v>1302</v>
       </c>
       <c r="D7" s="7">
-        <v>1465886</v>
+        <v>1610725</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1002,7 +1002,7 @@
         <v>1721</v>
       </c>
       <c r="I7" s="7">
-        <v>1427312</v>
+        <v>1395150</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1017,7 +1017,7 @@
         <v>3023</v>
       </c>
       <c r="N7" s="7">
-        <v>2893199</v>
+        <v>3005874</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1038,7 +1038,7 @@
         <v>559</v>
       </c>
       <c r="D8" s="7">
-        <v>536201</v>
+        <v>529286</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1053,7 +1053,7 @@
         <v>996</v>
       </c>
       <c r="I8" s="7">
-        <v>648654</v>
+        <v>661450</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1068,7 +1068,7 @@
         <v>1555</v>
       </c>
       <c r="N8" s="7">
-        <v>1184854</v>
+        <v>1190737</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1089,7 +1089,7 @@
         <v>1861</v>
       </c>
       <c r="D9" s="7">
-        <v>2002087</v>
+        <v>2140011</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1104,7 +1104,7 @@
         <v>2717</v>
       </c>
       <c r="I9" s="7">
-        <v>2075966</v>
+        <v>2056600</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1119,7 +1119,7 @@
         <v>4578</v>
       </c>
       <c r="N9" s="7">
-        <v>4078053</v>
+        <v>4196611</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1142,7 +1142,7 @@
         <v>429</v>
       </c>
       <c r="D10" s="7">
-        <v>444564</v>
+        <v>422367</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1157,7 +1157,7 @@
         <v>578</v>
       </c>
       <c r="I10" s="7">
-        <v>431889</v>
+        <v>398921</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1172,7 +1172,7 @@
         <v>1007</v>
       </c>
       <c r="N10" s="7">
-        <v>876453</v>
+        <v>821289</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1193,7 +1193,7 @@
         <v>218</v>
       </c>
       <c r="D11" s="7">
-        <v>197228</v>
+        <v>194836</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1208,7 +1208,7 @@
         <v>376</v>
       </c>
       <c r="I11" s="7">
-        <v>247430</v>
+        <v>229623</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1223,7 +1223,7 @@
         <v>594</v>
       </c>
       <c r="N11" s="7">
-        <v>444658</v>
+        <v>424458</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1244,7 +1244,7 @@
         <v>647</v>
       </c>
       <c r="D12" s="7">
-        <v>641792</v>
+        <v>617203</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1259,7 +1259,7 @@
         <v>954</v>
       </c>
       <c r="I12" s="7">
-        <v>679319</v>
+        <v>628544</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1274,7 +1274,7 @@
         <v>1601</v>
       </c>
       <c r="N12" s="7">
-        <v>1321111</v>
+        <v>1245747</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1297,7 +1297,7 @@
         <v>2124</v>
       </c>
       <c r="D13" s="7">
-        <v>2228075</v>
+        <v>2334027</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1312,7 +1312,7 @@
         <v>3141</v>
       </c>
       <c r="I13" s="7">
-        <v>2359356</v>
+        <v>2241972</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -1327,7 +1327,7 @@
         <v>5265</v>
       </c>
       <c r="N13" s="7">
-        <v>4587431</v>
+        <v>4575999</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -1348,7 +1348,7 @@
         <v>933</v>
       </c>
       <c r="D14" s="7">
-        <v>856635</v>
+        <v>845013</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1363,7 +1363,7 @@
         <v>1653</v>
       </c>
       <c r="I14" s="7">
-        <v>1061480</v>
+        <v>1044820</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -1378,7 +1378,7 @@
         <v>2586</v>
       </c>
       <c r="N14" s="7">
-        <v>1918115</v>
+        <v>1889833</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -1399,7 +1399,7 @@
         <v>3057</v>
       </c>
       <c r="D15" s="7">
-        <v>3084710</v>
+        <v>3179040</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1414,7 +1414,7 @@
         <v>4794</v>
       </c>
       <c r="I15" s="7">
-        <v>3420836</v>
+        <v>3286792</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1429,7 +1429,7 @@
         <v>7851</v>
       </c>
       <c r="N15" s="7">
-        <v>6505546</v>
+        <v>6465832</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
